--- a/Results/attack success mechanism/unrestricted/numeral_analysis.xlsx
+++ b/Results/attack success mechanism/unrestricted/numeral_analysis.xlsx
@@ -547,7 +547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
@@ -561,7 +561,7 @@
     <col min="6" max="6" width="14.5703125" customWidth="1"/>
     <col min="7" max="7" width="18.42578125" customWidth="1"/>
     <col min="8" max="8" width="20.140625" customWidth="1"/>
-    <col min="9" max="9" width="23.7109375" style="4" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="4" customWidth="1"/>
     <col min="10" max="10" width="12.7109375" customWidth="1"/>
     <col min="11" max="11" width="15.5703125" customWidth="1"/>
     <col min="12" max="12" width="17.85546875" customWidth="1"/>
